--- a/csv/main-files/Dhankawdi.xlsx
+++ b/csv/main-files/Dhankawdi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="132">
   <si>
     <t>Prabhag 69 A : Smt Varsha Tapkir</t>
   </si>
@@ -136,6 +136,9 @@
     <t xml:space="preserve">Concretization </t>
   </si>
   <si>
+    <t>104/127</t>
+  </si>
+  <si>
     <t>Final Total</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>88/127</t>
   </si>
   <si>
     <t>Drainage work/ Laying of Drainage line</t>
@@ -205,6 +211,9 @@
     <t>111/116</t>
   </si>
   <si>
+    <t>118/127</t>
+  </si>
+  <si>
     <t xml:space="preserve">Road construction/ Colouring roads/ Railing Work/Speed breaker </t>
   </si>
   <si>
@@ -221,6 +230,9 @@
   </si>
   <si>
     <t>Drainage work</t>
+  </si>
+  <si>
+    <t>105/127</t>
   </si>
   <si>
     <t>Prabhag 74A : Smt. Mohini Devkar</t>
@@ -257,6 +269,9 @@
   </si>
   <si>
     <t>DW</t>
+  </si>
+  <si>
+    <t>33/127</t>
   </si>
   <si>
     <t>Fencing, walls</t>
@@ -304,6 +319,9 @@
     <t>Computers/Printers</t>
   </si>
   <si>
+    <t>109/127</t>
+  </si>
+  <si>
     <t>School Developmental Work</t>
   </si>
   <si>
@@ -335,6 +353,9 @@
   </si>
   <si>
     <t>104/116</t>
+  </si>
+  <si>
+    <t>113/127</t>
   </si>
   <si>
     <t>Prabhag 75B : Abhijeet Kadam</t>
@@ -1529,7 +1550,9 @@
       <c r="F35" s="15">
         <v>0.0</v>
       </c>
-      <c r="G35" s="35"/>
+      <c r="G35" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="H35" s="35"/>
     </row>
     <row r="36">
@@ -1738,7 +1761,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="40" t="str">
         <f>(D11+D21+D34+D47)</f>
@@ -8604,7 +8627,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8660,7 +8683,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H3" s="15">
         <v>87.87</v>
@@ -8734,13 +8757,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D7" s="29">
         <v>95111.03</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -8774,13 +8797,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D9" s="29">
         <v>153027.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -8794,7 +8817,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D10" s="29">
         <v>88000.0</v>
@@ -8901,7 +8924,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H15" s="15">
         <v>84.41</v>
@@ -8975,7 +8998,7 @@
         <v>5.0</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D19" s="58">
         <v>91881.15</v>
@@ -8995,13 +9018,13 @@
         <v>6.0</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D20" s="58">
         <v>143844.44</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -9102,7 +9125,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H25" s="15">
         <v>86.2</v>
@@ -9256,13 +9279,13 @@
         <v>9.0</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="18">
         <v>168347.18</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -9333,7 +9356,7 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D37" s="29">
         <v>150446.0</v>
@@ -9353,7 +9376,7 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D38" s="29">
         <v>150610.0</v>
@@ -9413,13 +9436,13 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D41" s="59">
         <v>147166.0</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -9502,7 +9525,7 @@
     </row>
     <row r="48">
       <c r="C48" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" s="40" t="str">
         <f>(D10+D20+D33+D46)</f>
@@ -9555,7 +9578,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9618,19 +9641,19 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="29">
         <v>134699.53</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="15">
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="15">
         <v>96.96</v>
@@ -9644,13 +9667,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="29">
         <v>137847.51</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9664,7 +9687,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="29">
         <v>90977.16</v>
@@ -9824,7 +9847,7 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="12">
         <v>124584.43</v>
@@ -9871,7 +9894,7 @@
         <v>1.0</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" s="15">
         <v>85.71</v>
@@ -9962,7 +9985,7 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="15">
         <v>78.44</v>
@@ -9976,13 +9999,13 @@
         <v>2.0</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="12">
         <v>185084.89</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -10076,13 +10099,13 @@
         <v>7.0</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="30">
         <v>184823.81</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -10096,13 +10119,13 @@
         <v>8.0</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="30">
         <v>187773.98</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -10162,7 +10185,9 @@
       <c r="F30" s="15">
         <v>0.0</v>
       </c>
-      <c r="G30" s="35"/>
+      <c r="G30" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" s="35"/>
     </row>
     <row r="31">
@@ -10173,7 +10198,7 @@
         <v>2.0</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" s="29">
         <v>192636.0</v>
@@ -10193,7 +10218,7 @@
         <v>3.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" s="29">
         <v>196017.0</v>
@@ -10213,7 +10238,7 @@
         <v>4.0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D33" s="29">
         <v>193818.0</v>
@@ -10233,13 +10258,13 @@
         <v>5.0</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34" s="29">
         <v>163322.0</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -10253,7 +10278,7 @@
         <v>6.0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" s="29">
         <v>187032.0</v>
@@ -10273,7 +10298,7 @@
         <v>7.0</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" s="29">
         <v>188386.0</v>
@@ -10293,7 +10318,7 @@
         <v>8.0</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D37" s="29">
         <v>192869.0</v>
@@ -10351,7 +10376,7 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" s="40" t="str">
         <f>(D4+D14+D27+D40)</f>
@@ -17218,7 +17243,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17274,7 +17299,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="15">
         <v>77.27</v>
@@ -17328,13 +17353,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="12">
         <v>31620.27</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -17383,19 +17408,19 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="12">
         <v>155471.86</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="15">
         <v>0.0</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="15">
         <v>75.32</v>
@@ -17409,13 +17434,13 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="12">
         <v>98963.68</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -17489,13 +17514,13 @@
         <v>6.0</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="12">
         <v>169464.85</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -17509,13 +17534,13 @@
         <v>7.0</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="12">
         <v>169816.21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -17529,13 +17554,13 @@
         <v>8.0</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="12">
         <v>198434.41</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -17569,13 +17594,13 @@
         <v>10.0</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="27">
         <v>196819.53</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -17616,7 +17641,7 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="15">
         <v>95.68</v>
@@ -17696,7 +17721,9 @@
       <c r="F25" s="15">
         <v>0.0</v>
       </c>
-      <c r="G25" s="35"/>
+      <c r="G25" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="H25" s="35"/>
     </row>
     <row r="26">
@@ -17707,13 +17734,13 @@
         <v>2.0</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D26" s="29">
         <v>147883.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -17783,7 +17810,7 @@
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="40" t="str">
         <f>(#REF!+D4+D17+D30)</f>
@@ -17838,7 +17865,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17894,7 +17921,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3" s="15">
         <v>93.93</v>
@@ -17963,19 +17990,19 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="12">
         <v>151289.15</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" s="15">
         <v>0.0</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H7" s="15">
         <v>89.61</v>
@@ -18146,7 +18173,7 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H16" s="15">
         <v>81.89</v>
@@ -18200,7 +18227,7 @@
         <v>4.0</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" s="12">
         <v>125259.62</v>
@@ -18255,18 +18282,20 @@
         <v>1.0</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" s="12">
         <v>121539.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F22" s="15">
         <v>0.0</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="H22" s="35"/>
     </row>
     <row r="23">
@@ -18343,7 +18372,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="40" t="str">
         <f>(D6+D15+D21+D26)</f>
@@ -18398,7 +18427,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18442,7 +18471,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" s="29">
         <v>119812.97</v>
@@ -18454,7 +18483,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="15">
         <v>96.96</v>
@@ -18468,7 +18497,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4" s="29">
         <v>120000.0</v>
@@ -18488,7 +18517,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D5" s="29">
         <v>117235.17</v>
@@ -18508,13 +18537,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D6" s="29">
         <v>118236.46</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -18548,13 +18577,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8" s="29">
         <v>175260.77</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -18568,13 +18597,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D9" s="29">
         <v>118164.73</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -18628,7 +18657,7 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D12" s="29">
         <v>139970.82</v>
@@ -18663,7 +18692,7 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D14" s="12">
         <v>200000.0</v>
@@ -18675,7 +18704,7 @@
         <v>0.0</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="15">
         <v>93.5</v>
@@ -18689,13 +18718,13 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D15" s="12">
         <v>132352.53</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -18749,13 +18778,13 @@
         <v>5.0</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="12">
         <v>67416.98</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -18836,7 +18865,7 @@
         <v>0.0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H22" s="15">
         <v>93.1</v>
@@ -18850,13 +18879,13 @@
         <v>2.0</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D23" s="29">
         <v>167007.55</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -18870,13 +18899,13 @@
         <v>3.0</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D24" s="29">
         <v>160987.14</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -18890,7 +18919,7 @@
         <v>4.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D25" s="29">
         <v>113874.6</v>
@@ -18910,13 +18939,13 @@
         <v>5.0</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="18">
         <v>194859.46</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -18985,7 +19014,7 @@
         <v>1.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D30" s="29">
         <v>115647.0</v>
@@ -18996,7 +19025,9 @@
       <c r="F30" s="15">
         <v>0.0</v>
       </c>
-      <c r="G30" s="35"/>
+      <c r="G30" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="H30" s="35"/>
     </row>
     <row r="31">
@@ -19007,7 +19038,7 @@
         <v>2.0</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D31" s="29">
         <v>58591.0</v>
@@ -19027,13 +19058,13 @@
         <v>3.0</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D32" s="29">
         <v>161541.0</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -19047,7 +19078,7 @@
         <v>4.0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D33" s="29">
         <v>113011.0</v>
@@ -19087,7 +19118,7 @@
         <v>6.0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D35" s="29">
         <v>126520.0</v>
@@ -19126,7 +19157,7 @@
     </row>
     <row r="39">
       <c r="C39" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="40" t="str">
         <f>(D1+D11+D24+D37)</f>
@@ -19173,7 +19204,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -19217,7 +19248,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="29">
         <v>119997.98</v>
@@ -19229,7 +19260,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H3" s="15">
         <v>80.3</v>
@@ -19243,13 +19274,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D4" s="29">
         <v>125147.44</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -19263,13 +19294,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="29">
         <v>163292.81</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -19323,7 +19354,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="29">
         <v>102837.77</v>
@@ -19343,7 +19374,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D9" s="29">
         <v>150500.0</v>
@@ -19363,7 +19394,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D10" s="29">
         <v>139700.0</v>
@@ -19383,7 +19414,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="29">
         <v>129470.4</v>
@@ -19403,7 +19434,7 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D12" s="29">
         <v>175000.0</v>
@@ -19450,7 +19481,7 @@
         <v>0.0</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H14" s="15">
         <v>89.61</v>
@@ -19484,13 +19515,13 @@
         <v>3.0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="12">
         <v>49566.86</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -19582,13 +19613,13 @@
         <v>8.0</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D21" s="12">
         <v>169816.38</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -19669,7 +19700,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H25" s="15">
         <v>86.2</v>
@@ -19683,13 +19714,13 @@
         <v>2.0</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D26" s="12">
         <v>137962.46</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -19703,13 +19734,13 @@
         <v>3.0</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D27" s="12">
         <v>199504.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -19723,7 +19754,7 @@
         <v>4.0</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D28" s="12">
         <v>113914.5</v>
@@ -19743,7 +19774,7 @@
         <v>5.0</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D29" s="12">
         <v>199000.0</v>
@@ -19763,7 +19794,7 @@
         <v>6.0</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D30" s="12">
         <v>199000.0</v>
@@ -19783,7 +19814,7 @@
         <v>7.0</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D31" s="12">
         <v>199000.0</v>
@@ -19803,7 +19834,7 @@
         <v>8.0</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D32" s="12">
         <v>199000.0</v>
@@ -19823,7 +19854,7 @@
         <v>9.0</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D33" s="12">
         <v>100000.0</v>
@@ -19858,18 +19889,20 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D35" s="29">
         <v>159572.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F35" s="15">
         <v>0.0</v>
       </c>
-      <c r="G35" s="35"/>
+      <c r="G35" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="H35" s="35"/>
     </row>
     <row r="36">
@@ -19880,13 +19913,13 @@
         <v>2.0</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D36" s="29">
         <v>160168.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -19900,13 +19933,13 @@
         <v>3.0</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D37" s="29">
         <v>154130.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -19920,13 +19953,13 @@
         <v>4.0</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D38" s="29">
         <v>58948.0</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -19940,13 +19973,13 @@
         <v>5.0</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D39" s="29">
         <v>104993.0</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -19960,13 +19993,13 @@
         <v>6.0</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D40" s="29">
         <v>83264.0</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -20019,7 +20052,7 @@
     </row>
     <row r="46">
       <c r="C46" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D46" s="40" t="str">
         <f>(D8+D18+D31+D44)</f>
@@ -20066,7 +20099,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20122,7 +20155,7 @@
         <v>2.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3" s="15">
         <v>93.93</v>
@@ -20136,13 +20169,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D4" s="29">
         <v>100740.53</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -20176,13 +20209,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" s="29">
         <v>38271.81</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -20196,13 +20229,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D7" s="29">
         <v>137349.14</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -20216,13 +20249,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D8" s="29">
         <v>120577.6</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -20256,7 +20289,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D10" s="29">
         <v>183000.0</v>
@@ -20296,13 +20329,13 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D12" s="29">
         <v>174536.79</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -20357,7 +20390,7 @@
         <v>3.0</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H15" s="15">
         <v>92.2</v>
@@ -20578,7 +20611,7 @@
         <v>0.0</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H26" s="15">
         <v>89.65</v>
@@ -20712,13 +20745,13 @@
         <v>8.0</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="18">
         <v>190298.36</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -20818,7 +20851,9 @@
       <c r="F38" s="15">
         <v>0.0</v>
       </c>
-      <c r="G38" s="35"/>
+      <c r="G38" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="H38" s="35"/>
     </row>
     <row r="39">
@@ -20869,13 +20904,13 @@
         <v>4.0</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D41" s="29">
         <v>26506.0</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -20968,7 +21003,7 @@
     </row>
     <row r="50">
       <c r="C50" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D50" s="40" t="str">
         <f>(D12+D22+D35+D48)</f>
@@ -21015,7 +21050,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21070,7 +21105,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H3" s="15">
         <v>65.15</v>
@@ -21084,13 +21119,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D4" s="29">
         <v>147240.76</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -21144,13 +21179,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D7" s="29">
         <v>83793.29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -21164,13 +21199,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D8" s="29">
         <v>137179.21</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -21184,13 +21219,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="29">
         <v>118187.74</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -21204,13 +21239,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D10" s="29">
         <v>145910.48</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -21224,13 +21259,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D11" s="29">
         <v>174536.79</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -21279,19 +21314,19 @@
         <v>1.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D15" s="12">
         <v>151374.18</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F15" s="15">
         <v>0.0</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H15" s="15">
         <v>40.25</v>
@@ -21492,7 +21527,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H25" s="15">
         <v>34.7</v>
@@ -21701,13 +21736,13 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" s="29">
         <v>144182.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36" s="15">
         <v>0.0</v>
@@ -21723,13 +21758,13 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" s="29">
         <v>144248.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -21743,13 +21778,13 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D38" s="29">
         <v>144307.0</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -21763,13 +21798,13 @@
         <v>4.0</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D39" s="29">
         <v>142660.0</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -21783,13 +21818,13 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D40" s="29">
         <v>144307.0</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -21823,13 +21858,13 @@
         <v>7.0</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D42" s="29">
         <v>152428.0</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -21843,13 +21878,13 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D43" s="29">
         <v>140178.0</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -21912,7 +21947,7 @@
     </row>
     <row r="50">
       <c r="C50" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D50" s="40" t="str">
         <f>(D12+D22+D35+D48)</f>
@@ -21959,7 +21994,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22002,19 +22037,19 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D3" s="29">
         <v>85278.87</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F3" s="15">
         <v>0.0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H3" s="15">
         <v>81.81</v>
@@ -22068,7 +22103,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="29">
         <v>154367.48</v>
@@ -22148,13 +22183,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="29">
         <v>70173.84</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -22235,7 +22270,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H15" s="15">
         <v>66.23</v>
@@ -22309,13 +22344,13 @@
         <v>5.0</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="12">
         <v>169669.95</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -22409,13 +22444,13 @@
         <v>10.0</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" s="12">
         <v>86200.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -22444,19 +22479,19 @@
         <v>1.0</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29">
         <v>195661.99</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" s="15">
         <v>0.0</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H26" s="15">
         <v>68.96</v>
@@ -22470,13 +22505,13 @@
         <v>2.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="29">
         <v>198957.53</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -22490,13 +22525,13 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D28" s="29">
         <v>179760.02</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -22570,13 +22605,13 @@
         <v>7.0</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D32" s="18">
         <v>125879.98</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -22645,13 +22680,13 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" s="29">
         <v>126721.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36" s="15">
         <v>0.0</v>
@@ -22667,13 +22702,13 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" s="29">
         <v>158500.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -22687,7 +22722,7 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D38" s="29">
         <v>189912.0</v>
@@ -22727,13 +22762,13 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D40" s="29">
         <v>168279.0</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -22747,7 +22782,7 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D41" s="29">
         <v>179555.0</v>
@@ -22826,7 +22861,7 @@
     </row>
     <row r="49">
       <c r="C49" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="40" t="str">
         <f>(D11+D21+D34+D47)</f>
